--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3055.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3055.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2203047552043269</v>
+        <v>1.761402010917664</v>
       </c>
       <c r="B1">
-        <v>0.4031612723517681</v>
+        <v>3.880680084228516</v>
       </c>
       <c r="C1">
-        <v>2.203832490328846</v>
+        <v>5.835652351379395</v>
       </c>
       <c r="D1">
-        <v>4.220151269928162</v>
+        <v>1.546212792396545</v>
       </c>
       <c r="E1">
-        <v>4.141708606119208</v>
+        <v>0.8441539406776428</v>
       </c>
     </row>
   </sheetData>
